--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\ZF\TIMES_STUDENTS_MID\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF9CF16-D5B1-44EA-981D-F2626D1C3FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="59">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -70,27 +71,158 @@
     <t>Process Set: Process Name</t>
   </si>
   <si>
+    <t>CAP_BND</t>
+  </si>
+  <si>
+    <t>ELE_NEW_NUC_SMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\I: </t>
+  </si>
+  <si>
+    <t>\I:</t>
+  </si>
+  <si>
+    <t>Ograniczenie mocy całkowitej w roku 2040</t>
+  </si>
+  <si>
+    <t>Ograniczenia podaży kokosa</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>IMP_COCONUT</t>
+  </si>
+  <si>
+    <t>PJ/rok</t>
+  </si>
+  <si>
+    <t>MIN_CANOLA</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>zł/GJ</t>
+  </si>
+  <si>
+    <t>Prognoza ceny paliwa</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Commodity Set: Commodity Name</t>
+  </si>
+  <si>
+    <t>CANOLA</t>
+  </si>
+  <si>
+    <t>COCONUT</t>
+  </si>
+  <si>
+    <t>ELE_NEW_BC_PL</t>
+  </si>
+  <si>
+    <t>ELE_NEW_BC_PL_CCS</t>
+  </si>
+  <si>
+    <t>ELE_NEW_BC_FBC</t>
+  </si>
+  <si>
+    <t>ELE_NEW_HC_PC</t>
+  </si>
+  <si>
+    <t>ELE_NEW_HC_IGCC</t>
+  </si>
+  <si>
+    <t>ELE_NEW_HC_IGCC_CCS</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>Other Indexes</t>
+  </si>
+  <si>
+    <t>NCAP_START</t>
+  </si>
+  <si>
+    <t>Ograniczenia podaży rzepaku</t>
+  </si>
+  <si>
+    <t>te elektrownie zaczynają się tworzyć po naszym modelu (zastopowaliśmy je) - brak elektrowni na węgiel brunatny i kamienny</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla SMR</t>
+  </si>
+  <si>
     <t>ELE_NEW_WIND-ON</t>
   </si>
   <si>
-    <t>CAP_BND</t>
+    <t>Ograniczenia górne dla wind on</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla wind off</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND-OFF</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla pv grnd</t>
+  </si>
+  <si>
+    <t>ELE_NEW_PV_GRND</t>
+  </si>
+  <si>
+    <t>ELE_NEW_PV_ROOF</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne pv roof</t>
+  </si>
+  <si>
+    <t>Ograniczenie mocy całkowitej w roku 2050</t>
+  </si>
+  <si>
+    <t>ELE_NEW_NUC_PWR</t>
+  </si>
+  <si>
+    <t>ELE_NEW_COCONUT</t>
+  </si>
+  <si>
+    <t>ELE_NEW_CANOLA</t>
+  </si>
+  <si>
+    <t>Ograniczenia dolne dla kokosa</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>Ograniczenie dolne mocy całkowitej w roku 2040</t>
+  </si>
+  <si>
+    <t>Ograniczenia dolne dla rzepaka</t>
+  </si>
+  <si>
+    <t>Ograniczenia górne dla jądrówki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\Te\x\t"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,14 +231,37 @@
       <charset val="238"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +292,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF96DBFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -149,8 +322,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -158,21 +331,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -180,30 +344,76 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 2" xfId="1" xr:uid="{BF4F5628-973B-4BD1-9D26-AFC82752D620}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -219,9 +429,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,9 +469,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,7 +506,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,7 +541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -504,191 +714,1997 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.53125" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1328125" customWidth="1"/>
+    <col min="4" max="4" width="13.53125" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" customWidth="1"/>
+    <col min="6" max="8" width="30" customWidth="1"/>
+    <col min="9" max="10" width="2.19921875" customWidth="1"/>
+    <col min="11" max="11" width="12.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="G3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="2:15" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="G4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
         <v>2025</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E15" s="20">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E16" s="20">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E17" s="20">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E18" s="20">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E19" s="20">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E20" s="20">
+        <v>30</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E22" s="21">
+        <v>50</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E24" s="20">
+        <v>4</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E25" s="20">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E26" s="20">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E27" s="20">
+        <v>16</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E28" s="20">
+        <v>20</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E29" s="20">
+        <v>24</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E31" s="21">
+        <v>40</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E33" s="20">
+        <v>10</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E34" s="20">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E35" s="20">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E36" s="20">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E37" s="20">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E38" s="20">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E40" s="21">
+        <v>40</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E42" s="20">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E43" s="20">
+        <v>10</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E44" s="20">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E45" s="20">
+        <v>10</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E46" s="20">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E47" s="20">
+        <v>10</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E49" s="21">
+        <v>30</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E51" s="20">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E52" s="20">
+        <v>3.9</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E53" s="20">
+        <v>5</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E54" s="20">
+        <v>6</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E55" s="20">
+        <v>2</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E56" s="20">
+        <v>2</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="D58" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E58" s="21">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E60" s="20">
+        <v>10</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="5">
         <v>2030</v>
       </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E61" s="20">
+        <v>10</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E62" s="20">
+        <v>10</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E63" s="20">
+        <v>10</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E64" s="20">
+        <v>10</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E65" s="20">
+        <v>10</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="2:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="D67" s="9">
+        <v>2040</v>
+      </c>
+      <c r="E67" s="21">
+        <v>30</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B68" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E69" s="20">
+        <v>10</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E70" s="20">
+        <v>10</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="4">
         <v>2035</v>
       </c>
-      <c r="E7" s="6">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E71" s="20">
+        <v>10</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E72" s="20">
+        <v>10</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E73" s="20">
+        <v>10</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2050</v>
+      </c>
+      <c r="E74" s="20">
+        <v>10</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B75" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="2:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="D76" s="9">
         <v>2040</v>
       </c>
-      <c r="E8" s="5">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="E76" s="9">
+        <v>30</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B77" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78">
+        <v>2020</v>
+      </c>
+      <c r="E78" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E79" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E80" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E81" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E82" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="4">
         <v>2045</v>
       </c>
-      <c r="E9" s="6">
-        <v>16</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="E83" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="5">
         <v>2050</v>
       </c>
-      <c r="E10" s="7">
-        <v>16</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="E84" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B85" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86">
+        <v>2020</v>
+      </c>
+      <c r="E86" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E87" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="5">
+        <v>2030</v>
+      </c>
+      <c r="E88" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="4">
+        <v>2035</v>
+      </c>
+      <c r="E89" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="5">
+        <v>2040</v>
+      </c>
+      <c r="E90" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2045</v>
+      </c>
+      <c r="E91" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="5">
         <v>2050</v>
       </c>
-      <c r="E12" s="4">
-        <v>50</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E92" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B93" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C94" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="12">
+        <v>2025</v>
+      </c>
+      <c r="E94" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F94" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" s="12"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C95" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E95" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" s="11"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C96" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="12">
+        <v>2035</v>
+      </c>
+      <c r="E96" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F96" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C97" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="11">
+        <v>2040</v>
+      </c>
+      <c r="E97" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C98" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="12">
+        <v>2045</v>
+      </c>
+      <c r="E98" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C99" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="11">
+        <v>2050</v>
+      </c>
+      <c r="E99" s="19">
+        <v>127.7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" s="11"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B100" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C101" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="12">
+        <v>2025</v>
+      </c>
+      <c r="E101" s="19">
+        <v>25</v>
+      </c>
+      <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I101" s="12"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C102" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="11">
+        <v>2030</v>
+      </c>
+      <c r="E102" s="19">
+        <v>25</v>
+      </c>
+      <c r="F102" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I102" s="11"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C103" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="12">
+        <v>2035</v>
+      </c>
+      <c r="E103" s="19">
+        <v>25</v>
+      </c>
+      <c r="F103" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C104" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="11">
+        <v>2040</v>
+      </c>
+      <c r="E104" s="19">
+        <v>25</v>
+      </c>
+      <c r="F104" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I104" s="11"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C105" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="12">
+        <v>2045</v>
+      </c>
+      <c r="E105" s="19">
+        <v>25</v>
+      </c>
+      <c r="F105" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C106" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="11">
+        <v>2050</v>
+      </c>
+      <c r="E106" s="19">
+        <v>25</v>
+      </c>
+      <c r="F106" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I106" s="11"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B107" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D107" s="13"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C108" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108">
+        <v>2060</v>
+      </c>
+      <c r="F108" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C109" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109">
+        <v>2060</v>
+      </c>
+      <c r="F109" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C110" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110">
+        <v>2060</v>
+      </c>
+      <c r="F110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C111" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111">
+        <v>2060</v>
+      </c>
+      <c r="F111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112">
+        <v>2060</v>
+      </c>
+      <c r="F112" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113">
+        <v>2060</v>
+      </c>
+      <c r="F113" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K3:M3"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -697,15 +2713,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -716,7 +2723,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -911,15 +2918,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -932,7 +2940,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -949,4 +2957,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>